--- a/quellen.xlsx
+++ b/quellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/jan_franck_bwedu_de/Documents/Dokumente/GitHub/SW-ENG-Gruppe5-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DB114E441178AC67DF48856D3EF1E683EDF1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{996CBD80-F7AC-4B5F-AA0B-B961E9BD1285}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_AD4DB114E441178AC67DF48856D3EF1E683EDF1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{000D3ECD-2B92-4EB8-A843-345A120CDDDA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>https://www.banggood.com/Mini-2-in-1-DC-Step-Down-Step-Up-Converter-1_8V-5V-to-3_3V-Power-Module-For-p-1194172.html?rmmds=search&amp;cur_warehouse=CN</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>https://de.aliexpress.com/item/32573199420.html?spm=a2g0o.productlist.0.0.3e9c9a72s5h6za&amp;algo_pvid=458dece8-d24d-4b46-92b3-5dc38b3ad8b9&amp;algo_expid=458dece8-d24d-4b46-92b3-5dc38b3ad8b9-1&amp;btsid=0be3746c15850875763871774ec4e4&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/32904938536.html?spm=a2g0o.productlist.0.0.5acc4d63mSEo1z&amp;algo_pvid=a83c9865-d80a-42a4-9a17-4ca8ad79f6d7&amp;algo_expid=a83c9865-d80a-42a4-9a17-4ca8ad79f6d7-1&amp;btsid=0ab6f83a15852303606048397e2c7f&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
 </sst>
 </file>
@@ -377,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +426,11 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -435,6 +443,7 @@
     <hyperlink ref="A6" r:id="rId6" display="https://de.aliexpress.com/item/32878181081.html?spm=a2g0o.productlist.0.0.56747459L4vU8h&amp;algo_pvid=d5696cf6-cfc3-4afb-9065-356c18911cbc&amp;algo_expid=d5696cf6-cfc3-4afb-9065-356c18911cbc-0&amp;btsid=0ab6d69f15850846807315179e367c&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{E37CA813-4481-42DA-9DD0-99FDC0D581CE}"/>
     <hyperlink ref="A7" r:id="rId7" xr:uid="{A7EF4EB0-4FCA-4EFE-8C43-58C5B0EC8D14}"/>
     <hyperlink ref="A8" r:id="rId8" display="https://de.aliexpress.com/item/32573199420.html?spm=a2g0o.productlist.0.0.3e9c9a72s5h6za&amp;algo_pvid=458dece8-d24d-4b46-92b3-5dc38b3ad8b9&amp;algo_expid=458dece8-d24d-4b46-92b3-5dc38b3ad8b9-1&amp;btsid=0be3746c15850875763871774ec4e4&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{0CF31792-CEE2-4FCA-AF28-C7C8DC9EA8FD}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://de.aliexpress.com/item/32904938536.html?spm=a2g0o.productlist.0.0.5acc4d63mSEo1z&amp;algo_pvid=a83c9865-d80a-42a4-9a17-4ca8ad79f6d7&amp;algo_expid=a83c9865-d80a-42a4-9a17-4ca8ad79f6d7-1&amp;btsid=0ab6f83a15852303606048397e2c7f&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_" xr:uid="{CF33346B-809B-49A7-AE3D-4D72FE1C7811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
